--- a/test-data/TestData_And_Validation.xlsx
+++ b/test-data/TestData_And_Validation.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="116">
   <si>
     <t>Car Loan Amount</t>
   </si>
@@ -465,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="396">
+  <cellXfs count="402">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -498,6 +498,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -1376,7 +1382,7 @@
       <c r="E2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="387" t="s">
+      <c r="F2" s="396" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1396,7 +1402,7 @@
       <c r="E3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="388" t="s">
+      <c r="F3" s="397" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1416,7 +1422,7 @@
       <c r="E4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="389" t="s">
+      <c r="F4" s="398" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1436,7 +1442,7 @@
       <c r="E5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="390" t="s">
+      <c r="F5" s="399" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1472,7 +1478,7 @@
       <c r="E7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="391" t="s">
+      <c r="F7" s="400" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1492,7 +1498,7 @@
       <c r="E8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="392" t="s">
+      <c r="F8" s="401" t="s">
         <v>40</v>
       </c>
     </row>
